--- a/DATA/IsoData/BLANIsoData.xlsx
+++ b/DATA/IsoData/BLANIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">1aecec9d-9b16-49ad-9e15-efc028275bd2</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b3d8cd4-51b3-497d-8b30-2b1fc1c88997</t>
   </si>
   <si>
     <t xml:space="preserve">BLAN.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143241Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2589ff2a-29c8-477d-bb37-f7daa154b59d</t>
+    <t xml:space="preserve">20210112T153718Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbc48faf-7647-49b6-af91-c7eb06689591</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190523.1214</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000072209</t>
   </si>
   <si>
-    <t xml:space="preserve">20017512-1c0e-42cb-93e2-6d307b990415</t>
+    <t xml:space="preserve">e2875756-028f-4f46-8f8b-2d48ca141e2e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190619.1042</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000072229</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142729Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1eb103a6-1bcc-4778-ac06-db3406484e4e</t>
+    <t xml:space="preserve">20210112T153820Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85571854-1de3-40e1-811f-60bf828f893e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190703.0756</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A00000072227</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143325Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7326aac9-11d7-4b8e-8f96-0fbd96997d4a</t>
+    <t xml:space="preserve">20210112T154433Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1fc963d4-8742-4f92-8846-851914b115a0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190716.0941</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000072313</t>
   </si>
   <si>
-    <t xml:space="preserve">79229cdb-3aed-434f-afc6-781aa9ac8870</t>
+    <t xml:space="preserve">0d9a8d0f-2a3f-49be-a131-8f21d07b8b99</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190731.0938</t>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">A00000072297</t>
   </si>
   <si>
-    <t xml:space="preserve">dded35db-ba65-4a5e-a1ed-8def1d022a66</t>
+    <t xml:space="preserve">cb4e6322-65fe-4eac-9edc-206611f32013</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190814.1029</t>
@@ -167,10 +173,10 @@
     <t xml:space="preserve">A00000033879</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143157Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0cf5c0c-5f09-4ec0-9bb2-51ca62c371f1</t>
+    <t xml:space="preserve">20210112T154322Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d8eb972-0dfe-49ad-aabf-b530b035e128</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190829.1251</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000072304</t>
   </si>
   <si>
-    <t xml:space="preserve">37d8f834-6fca-4d5f-8523-0873671ac278</t>
+    <t xml:space="preserve">a3a9a378-62c3-4bfb-a27d-880e7e7e20ae</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190911.1146</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000072299</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142841Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a4bd0991-15b7-467f-b301-603aa5625c4f</t>
+    <t xml:space="preserve">20210112T154437Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d58a8e3b-c902-430b-bd29-76bf996f68e4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20190925.1000</t>
@@ -209,22 +215,22 @@
     <t xml:space="preserve">A00000072293</t>
   </si>
   <si>
-    <t xml:space="preserve">34adb580-d2ea-4201-b494-3c182c18800d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.BLAN.20191010.0900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.BLAN.20191010.0900.ISO.TEST</t>
+    <t xml:space="preserve">904f09c5-ba11-471e-bc13-a023545f301e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BLAN.20191009.0900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BLAN.20191009.0900.ISO.TEST</t>
   </si>
   <si>
     <t xml:space="preserve">A00000072308</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143125Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6548ea7f-4672-44d2-a94c-59e258751fb8</t>
+    <t xml:space="preserve">20210112T155310Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca58c6ea-17e8-487d-8601-fc37f6a46d94</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20191022.1101</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">A00000072311</t>
   </si>
   <si>
-    <t xml:space="preserve">1a3c8a4e-6ded-4238-9e5d-9e1b7158ad3c</t>
+    <t xml:space="preserve">6fffc087-92b3-423d-bd2d-50f4a8dd96c1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20191107.1200</t>
@@ -248,10 +254,10 @@
     <t xml:space="preserve">A00000072193</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163609Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f0609d56-2632-43b9-850b-b179eace1bc6</t>
+    <t xml:space="preserve">20210112T161200Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d87fbc1f-f943-49be-993b-c0a6c33440bd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20191120.0900</t>
@@ -263,7 +269,7 @@
     <t xml:space="preserve">A00000072240</t>
   </si>
   <si>
-    <t xml:space="preserve">5f06dc03-07ad-4efb-ade9-1877874dce02</t>
+    <t xml:space="preserve">80783577-6fdc-4a6e-89ae-e9f3513134b2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20191203.1200</t>
@@ -275,10 +281,10 @@
     <t xml:space="preserve">A00000072302</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163524Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">af1aea0c-007f-4841-83a9-e154647a40c8</t>
+    <t xml:space="preserve">20210112T162825Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">396308f9-0c52-4f87-919c-3e408584d0f1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20191217.1200</t>
@@ -290,7 +296,7 @@
     <t xml:space="preserve">A00000072215</t>
   </si>
   <si>
-    <t xml:space="preserve">537a08fa-a255-4578-9cda-716219ac0c75</t>
+    <t xml:space="preserve">640c506f-bf93-48b1-92e8-f52a96d81481</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20200106.1200</t>
@@ -302,10 +308,13 @@
     <t xml:space="preserve">A00000072235</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T141921Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b302249f-dfbc-4037-9dae-409829745861</t>
+    <t xml:space="preserve">20210112T155757Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc6258d6-7d37-4522-b98a-84fbfc850543</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20200120.1200</t>
@@ -317,7 +326,7 @@
     <t xml:space="preserve">A00000072223</t>
   </si>
   <si>
-    <t xml:space="preserve">b4e7e9b3-1121-4b7e-b35b-97c4937105a7</t>
+    <t xml:space="preserve">1707d0ff-fd79-49a9-bca7-f48a62984649</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BLAN.20200204.1000</t>
@@ -329,7 +338,34 @@
     <t xml:space="preserve">A00000072242</t>
   </si>
   <si>
-    <t xml:space="preserve">20200601T132812Z</t>
+    <t xml:space="preserve">20210112T155313Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0b28bfdd-e231-4c44-bb59-14b3e2496d9c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BLAN.20200226.1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BLAN.20200226.1350.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000072264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46737c93-9561-4893-9cbe-8a4185c1059e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BLAN.20200312.1158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.BLAN.20200312.1158.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000072247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T154412Z</t>
   </si>
 </sst>
 </file>
@@ -667,7 +703,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -721,26 +757,29 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>43593.5111111111</v>
+        <v>43578.6673611111</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>43593.5118055556</v>
@@ -758,35 +797,38 @@
         <v>0.238</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43636.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43593.5111111111</v>
@@ -807,35 +849,38 @@
         <v>0.044</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43608.6701388889</v>
@@ -856,35 +901,38 @@
         <v>0.056</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43635.6145833333</v>
@@ -905,35 +953,38 @@
         <v>0.032</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43649.5013888889</v>
@@ -954,35 +1005,38 @@
         <v>0.617</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43662.5708333333</v>
@@ -1003,35 +1057,38 @@
         <v>0.234</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43677.6666666667</v>
@@ -1052,35 +1109,38 @@
         <v>0.22</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43691.6041666667</v>
@@ -1101,35 +1161,38 @@
         <v>0.304</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43706.7027777778</v>
@@ -1150,38 +1213,41 @@
         <v>0.24</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>43718.7840277778</v>
+        <v>43719.6590277778</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>43733.5833333333</v>
@@ -1199,41 +1265,44 @@
         <v>0.25</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>43718.7840277778</v>
+        <v>43733.6041666667</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>43748.5416666667</v>
+        <v>43747.5416666667</v>
       </c>
       <c r="I12" t="n">
         <v>-6.113</v>
@@ -1248,35 +1317,38 @@
         <v>0.166</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43747.6256944444</v>
@@ -1297,35 +1369,38 @@
         <v>0.432</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43760.625</v>
@@ -1346,35 +1421,38 @@
         <v>0.482</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43776.625</v>
@@ -1395,38 +1473,41 @@
         <v>0.102</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>43788.5833333333</v>
+        <v>43789.5868055556</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>43802.7083333333</v>
@@ -1444,35 +1525,38 @@
         <v>0.135</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43802.7083333333</v>
@@ -1493,35 +1577,38 @@
         <v>0.038</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43816.7916666667</v>
@@ -1542,35 +1629,38 @@
         <v>0.055</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43836.7083333333</v>
@@ -1591,35 +1681,38 @@
         <v>0.138</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43850.7083333333</v>
@@ -1640,17 +1733,124 @@
         <v>0.179</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="R20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>43873.7013888889</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43887.7847222222</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-8.972</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-67.006</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>43887.7847222222</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>43902.6652777778</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-8.056</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-51.94</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>117</v>
+      </c>
+      <c r="R22" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
